--- a/Casos de uso.xlsx
+++ b/Casos de uso.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Nombre del Proyecto</t>
   </si>
@@ -124,16 +124,7 @@
     <t>Se dirige a esa area o sección</t>
   </si>
   <si>
-    <t>Edición de mail</t>
-  </si>
-  <si>
-    <t>Una vez que se apreta en editar perfil, y se cargue los datos, los mismos cambien</t>
-  </si>
-  <si>
-    <t>Cambian los datos pero en la pagina al volver a entrar queda con el nombre previo</t>
-  </si>
-  <si>
-    <t>si/no</t>
+    <t>Se muestra efectivamente lapropuesta elegida</t>
   </si>
 </sst>
 </file>
@@ -204,10 +195,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -516,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,7 +518,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -544,65 +535,65 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
@@ -704,33 +695,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="4">
-        <v>45155</v>
+        <v>45168</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3"/>
